--- a/data/strategies/民生场外策略结果.xlsx
+++ b/data/strategies/民生场外策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="201">
   <si>
     <t>汇添富中证主要消费ETF联接</t>
   </si>
@@ -26,6 +26,9 @@
     <t>广发中证全指可选消费ETF联接A</t>
   </si>
   <si>
+    <t xml:space="preserve">天弘中证银行ETF联接A </t>
+  </si>
+  <si>
     <t>富国中证高端制造指数增强</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
     <t xml:space="preserve">华宝中证医疗ETF联接A </t>
   </si>
   <si>
-    <t xml:space="preserve">天弘中证银行ETF联接A </t>
-  </si>
-  <si>
     <t>合理估值+确定性</t>
   </si>
   <si>
@@ -68,73 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>11.08%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>5.13%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>12.68%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>14.55%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>18.77%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>4.63%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>2.72%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>16.20%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>15.42%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>18.78%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -149,6 +146,9 @@
     <t>001133.OF</t>
   </si>
   <si>
+    <t>001594.OF</t>
+  </si>
+  <si>
     <t>161037.OF</t>
   </si>
   <si>
@@ -158,115 +158,112 @@
     <t>162412.OF</t>
   </si>
   <si>
-    <t>001594.OF</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>-0.86%</t>
-  </si>
-  <si>
-    <t>7.56%</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>-3.24%</t>
-  </si>
-  <si>
-    <t>6.46%</t>
-  </si>
-  <si>
-    <t>5.43%</t>
-  </si>
-  <si>
-    <t>16.68%</t>
-  </si>
-  <si>
-    <t>7.33%</t>
-  </si>
-  <si>
-    <t>26.64%</t>
-  </si>
-  <si>
-    <t>0.55%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>10.15%</t>
-  </si>
-  <si>
-    <t>-8.16%</t>
-  </si>
-  <si>
-    <t>15.29%</t>
-  </si>
-  <si>
-    <t>8.83%</t>
-  </si>
-  <si>
-    <t>16.54%</t>
-  </si>
-  <si>
-    <t>11.09%</t>
-  </si>
-  <si>
-    <t>18.63%</t>
-  </si>
-  <si>
-    <t>18.92%</t>
-  </si>
-  <si>
-    <t>26.25%</t>
-  </si>
-  <si>
-    <t>11.60%</t>
-  </si>
-  <si>
-    <t>20.58%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>19.61%</t>
+    <t>-9.18%</t>
+  </si>
+  <si>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>-6.19%</t>
+  </si>
+  <si>
+    <t>10.47%</t>
+  </si>
+  <si>
+    <t>-1.15%</t>
+  </si>
+  <si>
+    <t>-3.09%</t>
+  </si>
+  <si>
+    <t>-3.54%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>-4.16%</t>
+  </si>
+  <si>
+    <t>15.05%</t>
+  </si>
+  <si>
+    <t>2.62%</t>
+  </si>
+  <si>
+    <t>11.88%</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>-0.08%</t>
+  </si>
+  <si>
+    <t>4.02%</t>
+  </si>
+  <si>
+    <t>14.10%</t>
+  </si>
+  <si>
+    <t>-8.57%</t>
+  </si>
+  <si>
+    <t>8.42%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>21.06%</t>
+  </si>
+  <si>
+    <t>18.55%</t>
+  </si>
+  <si>
+    <t>36.17%</t>
+  </si>
+  <si>
+    <t>20.31%</t>
+  </si>
+  <si>
+    <t>14.78%</t>
+  </si>
+  <si>
+    <t>16.60%</t>
+  </si>
+  <si>
+    <t>20.55%</t>
   </si>
   <si>
     <t>18.96%</t>
   </si>
   <si>
-    <t>25.77%</t>
-  </si>
-  <si>
-    <t>14.52%</t>
-  </si>
-  <si>
-    <t>28.64%</t>
-  </si>
-  <si>
-    <t>18.91%</t>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>18.64%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
   </si>
   <si>
     <t>23.92%</t>
   </si>
   <si>
-    <t>22.11%</t>
-  </si>
-  <si>
-    <t>32.10%</t>
-  </si>
-  <si>
-    <t>19.66%</t>
+    <t>21.67%</t>
+  </si>
+  <si>
+    <t>33.14%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -281,16 +278,19 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>600036.SH</t>
   </si>
   <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>601166.SH</t>
+    <t>300015.SZ</t>
   </si>
   <si>
     <t>603259.SH</t>
@@ -299,331 +299,328 @@
     <t>600570.SH</t>
   </si>
   <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
     <t>000001.SZ</t>
   </si>
   <si>
+    <t>688111.SH</t>
+  </si>
+  <si>
     <t>002410.SZ</t>
   </si>
   <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
     <t>600588.SH</t>
   </si>
   <si>
-    <t>300454.SZ</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002142.SZ</t>
   </si>
   <si>
     <t>300347.SZ</t>
   </si>
   <si>
+    <t>601328.SH</t>
+  </si>
+  <si>
     <t>300253.SZ</t>
   </si>
   <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
   </si>
   <si>
     <t>600763.SH</t>
   </si>
   <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>002142.SZ</t>
-  </si>
-  <si>
-    <t>3.52%</t>
-  </si>
-  <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>2.61%</t>
+    <t>299.64%</t>
+  </si>
+  <si>
+    <t>242.14%</t>
+  </si>
+  <si>
+    <t>241.52%</t>
+  </si>
+  <si>
+    <t>208.46%</t>
+  </si>
+  <si>
+    <t>205.24%</t>
+  </si>
+  <si>
+    <t>179.54%</t>
+  </si>
+  <si>
+    <t>177.84%</t>
+  </si>
+  <si>
+    <t>167.80%</t>
+  </si>
+  <si>
+    <t>149.28%</t>
+  </si>
+  <si>
+    <t>146.82%</t>
+  </si>
+  <si>
+    <t>131.04%</t>
+  </si>
+  <si>
+    <t>125.36%</t>
+  </si>
+  <si>
+    <t>114.62%</t>
+  </si>
+  <si>
+    <t>113.82%</t>
+  </si>
+  <si>
+    <t>110.18%</t>
+  </si>
+  <si>
+    <t>109.08%</t>
+  </si>
+  <si>
+    <t>105.34%</t>
+  </si>
+  <si>
+    <t>101.74%</t>
+  </si>
+  <si>
+    <t>101.21%</t>
+  </si>
+  <si>
+    <t>100.24%</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>金山办公</t>
+  </si>
+  <si>
+    <t>广联达</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>用友网络</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>卫宁健康</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>利息收入:发放贷款及垫款:个人贷款业务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>软件收入</t>
+  </si>
+  <si>
+    <t>办公服务订阅</t>
+  </si>
+  <si>
+    <t>工程造价业务</t>
+  </si>
+  <si>
+    <t>利息收入:发放贷款及垫款:公司贷款业务</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>技术服务及培训</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
+    <t>软件销售</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>17.07%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>-15.58%</t>
+  </si>
+  <si>
+    <t>11.07%</t>
+  </si>
+  <si>
+    <t>6.27%</t>
+  </si>
+  <si>
+    <t>-6.65%</t>
+  </si>
+  <si>
+    <t>1.44%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>-22.65%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>8.07%</t>
+  </si>
+  <si>
+    <t>5.73%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>软件开发</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>10.89%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>3.15%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
   </si>
   <si>
     <t>2.42%</t>
   </si>
   <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.42%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
-  </si>
-  <si>
-    <t>1.21%</t>
-  </si>
-  <si>
-    <t>1.10%</t>
-  </si>
-  <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>1.06%</t>
-  </si>
-  <si>
-    <t>1.05%</t>
-  </si>
-  <si>
-    <t>1.04%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>恒生电子</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>广联达</t>
-  </si>
-  <si>
-    <t>用友网络</t>
-  </si>
-  <si>
-    <t>深信服</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>卫宁健康</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>利息收入:发放贷款及垫款:个人贷款业务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>软件收入</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>工程造价业务</t>
-  </si>
-  <si>
-    <t>技术服务及培训</t>
-  </si>
-  <si>
-    <t>安全业务</t>
-  </si>
-  <si>
-    <t>利息收入:发放贷款及垫款:公司贷款业务</t>
-  </si>
-  <si>
-    <t>临床研究相关咨询服务</t>
-  </si>
-  <si>
-    <t>软件销售</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>27.06%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>-3.21%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>-13.85%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>19.58%</t>
-  </si>
-  <si>
-    <t>-11.42%</t>
-  </si>
-  <si>
-    <t>-22.77%</t>
-  </si>
-  <si>
-    <t>6.17%</t>
-  </si>
-  <si>
-    <t>4.44%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>-0.37%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>9.64%</t>
-  </si>
-  <si>
-    <t>11.29%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>软件开发</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>互联网服务</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>32.76%</t>
-  </si>
-  <si>
-    <t>23.33%</t>
-  </si>
-  <si>
-    <t>10.60%</t>
-  </si>
-  <si>
-    <t>8.62%</t>
-  </si>
-  <si>
-    <t>7.87%</t>
-  </si>
-  <si>
-    <t>6.18%</t>
-  </si>
-  <si>
-    <t>4.11%</t>
-  </si>
-  <si>
-    <t>3.48%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>1.01%</t>
   </si>
 </sst>
 </file>
@@ -987,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,19 +1065,19 @@
         <v>1.015057573073517</v>
       </c>
       <c r="D3">
+        <v>0.9819905968603077</v>
+      </c>
+      <c r="E3">
         <v>1.029435483870968</v>
       </c>
-      <c r="E3">
-        <v>1.021044992743106</v>
-      </c>
       <c r="F3">
-        <v>0.9958954089388872</v>
+        <v>1.020989668297988</v>
       </c>
       <c r="G3">
-        <v>0.9819905968603077</v>
+        <v>0.9959402985074626</v>
       </c>
       <c r="H3">
-        <v>1.01095058970031</v>
+        <v>1.010948502725002</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1100,19 +1097,19 @@
         <v>1.02204507430371</v>
       </c>
       <c r="D4">
+        <v>0.9709140170531516</v>
+      </c>
+      <c r="E4">
         <v>1.045614919354839</v>
       </c>
-      <c r="E4">
-        <v>1.031365908724399</v>
-      </c>
       <c r="F4">
-        <v>1.013681970203709</v>
+        <v>1.031321370309951</v>
       </c>
       <c r="G4">
-        <v>0.9709140170531516</v>
+        <v>1.013731343283582</v>
       </c>
       <c r="H4">
-        <v>1.023333817842841</v>
+        <v>1.023334784775925</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1132,19 +1129,19 @@
         <v>1.013286093888397</v>
       </c>
       <c r="D5">
+        <v>0.9925093632958802</v>
+      </c>
+      <c r="E5">
         <v>1.045967741935484</v>
       </c>
-      <c r="E5">
-        <v>1.008063215610385</v>
-      </c>
       <c r="F5">
-        <v>1.033064761325631</v>
+        <v>1.008047852093529</v>
       </c>
       <c r="G5">
-        <v>0.9925093632958802</v>
+        <v>1.033074626865672</v>
       </c>
       <c r="H5">
-        <v>1.026894191582053</v>
+        <v>1.02689309198669</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1164,19 +1161,19 @@
         <v>1.023324475937408</v>
       </c>
       <c r="D6">
+        <v>1.001514064865726</v>
+      </c>
+      <c r="E6">
         <v>1.053326612903226</v>
       </c>
-      <c r="E6">
-        <v>0.9787131107885826</v>
-      </c>
       <c r="F6">
-        <v>1.041730009121314</v>
+        <v>0.97868406742795</v>
       </c>
       <c r="G6">
-        <v>1.001514064865726</v>
+        <v>1.041791044776119</v>
       </c>
       <c r="H6">
-        <v>1.028410310120324</v>
+        <v>1.028416708579158</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1196,19 +1193,19 @@
         <v>1.026965849817931</v>
       </c>
       <c r="D7">
+        <v>1.005657821340346</v>
+      </c>
+      <c r="E7">
         <v>1.050756048387097</v>
       </c>
-      <c r="E7">
-        <v>1.00104821802935</v>
-      </c>
       <c r="F7">
-        <v>1.042566129522651</v>
+        <v>1.001087547580207</v>
       </c>
       <c r="G7">
-        <v>1.005657821340346</v>
+        <v>1.042626865671642</v>
       </c>
       <c r="H7">
-        <v>1.030797089169683</v>
+        <v>1.030817102309652</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1228,19 +1225,19 @@
         <v>1.027457927369353</v>
       </c>
       <c r="D8">
+        <v>1.015220336281776</v>
+      </c>
+      <c r="E8">
         <v>1.051915322580645</v>
       </c>
-      <c r="E8">
-        <v>1.005724883083374</v>
-      </c>
       <c r="F8">
-        <v>1.045226512617817</v>
+        <v>1.005764002175095</v>
       </c>
       <c r="G8">
-        <v>1.015220336281776</v>
+        <v>1.045253731343283</v>
       </c>
       <c r="H8">
-        <v>1.031120915486704</v>
+        <v>1.031134183050141</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1260,19 +1257,19 @@
         <v>1.046255289833678</v>
       </c>
       <c r="D9">
+        <v>1.028289106701729</v>
+      </c>
+      <c r="E9">
         <v>1.069153225806452</v>
       </c>
-      <c r="E9">
-        <v>1.015803902596356</v>
-      </c>
       <c r="F9">
-        <v>1.055944055944056</v>
+        <v>1.015769439912996</v>
       </c>
       <c r="G9">
-        <v>1.028289106701729</v>
+        <v>1.056</v>
       </c>
       <c r="H9">
-        <v>1.045437259817899</v>
+        <v>1.045441556092416</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1292,19 +1289,19 @@
         <v>1.043007577994292</v>
       </c>
       <c r="D10">
+        <v>1.02749223045661</v>
+      </c>
+      <c r="E10">
         <v>1.075907258064516</v>
       </c>
-      <c r="E10">
-        <v>1.003386550556362</v>
-      </c>
       <c r="F10">
-        <v>1.039449680754029</v>
+        <v>1.00337139749864</v>
       </c>
       <c r="G10">
-        <v>1.02749223045661</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="H10">
-        <v>1.039368100761946</v>
+        <v>1.039379611611537</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1324,19 +1321,19 @@
         <v>1.022143489813995</v>
       </c>
       <c r="D11">
+        <v>1.026695354211491</v>
+      </c>
+      <c r="E11">
         <v>1.059576612903226</v>
       </c>
-      <c r="E11">
-        <v>1.018222867279471</v>
-      </c>
       <c r="F11">
-        <v>1.040969899665552</v>
+        <v>1.018162044589451</v>
       </c>
       <c r="G11">
-        <v>1.026695354211491</v>
+        <v>1.041074626865672</v>
       </c>
       <c r="H11">
-        <v>1.034568133455876</v>
+        <v>1.034576914357896</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1356,19 +1353,19 @@
         <v>1.02627694124594</v>
       </c>
       <c r="D12">
+        <v>1.054426647541637</v>
+      </c>
+      <c r="E12">
         <v>1.055493951612903</v>
       </c>
-      <c r="E12">
-        <v>1.00104821802935</v>
-      </c>
       <c r="F12">
-        <v>1.038461538461539</v>
+        <v>1.001087547580207</v>
       </c>
       <c r="G12">
-        <v>1.054426647541637</v>
+        <v>1.038567164179105</v>
       </c>
       <c r="H12">
-        <v>1.033849211821142</v>
+        <v>1.033878202874826</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1388,19 +1385,19 @@
         <v>1.034543844109832</v>
       </c>
       <c r="D13">
+        <v>1.078412622519723</v>
+      </c>
+      <c r="E13">
         <v>1.076814516129032</v>
       </c>
-      <c r="E13">
-        <v>1.028301886792453</v>
-      </c>
       <c r="F13">
-        <v>1.050091213134691</v>
+        <v>1.028276237085372</v>
       </c>
       <c r="G13">
-        <v>1.078412622519723</v>
+        <v>1.050149253731343</v>
       </c>
       <c r="H13">
-        <v>1.051331905754762</v>
+        <v>1.051338383932677</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1420,19 +1417,19 @@
         <v>1.020372010628875</v>
       </c>
       <c r="D14">
+        <v>1.078332934895211</v>
+      </c>
+      <c r="E14">
         <v>1.053427419354839</v>
       </c>
-      <c r="E14">
-        <v>1.023141428801806</v>
-      </c>
       <c r="F14">
-        <v>1.029112192155671</v>
+        <v>1.023164763458401</v>
       </c>
       <c r="G14">
-        <v>1.078332934895211</v>
+        <v>1.029134328358209</v>
       </c>
       <c r="H14">
-        <v>1.038068078637926</v>
+        <v>1.038077172809752</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1452,19 +1449,19 @@
         <v>1.028442082472198</v>
       </c>
       <c r="D15">
+        <v>1.066778229340983</v>
+      </c>
+      <c r="E15">
         <v>1.073538306451613</v>
       </c>
-      <c r="E15">
-        <v>1.028140622480245</v>
-      </c>
       <c r="F15">
-        <v>1.072286409242931</v>
+        <v>1.028167482327352</v>
       </c>
       <c r="G15">
-        <v>1.066778229340983</v>
+        <v>1.072358208955224</v>
       </c>
       <c r="H15">
-        <v>1.050854974522527</v>
+        <v>1.050874706434406</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1484,19 +1481,19 @@
         <v>1.041531345340026</v>
       </c>
       <c r="D16">
+        <v>1.070125109570484</v>
+      </c>
+      <c r="E16">
         <v>1.100302419354839</v>
       </c>
-      <c r="E16">
-        <v>1.040074181583616</v>
-      </c>
       <c r="F16">
-        <v>1.105959258133171</v>
+        <v>1.040021750951604</v>
       </c>
       <c r="G16">
-        <v>1.070125109570484</v>
+        <v>1.106029850746269</v>
       </c>
       <c r="H16">
-        <v>1.069429420305511</v>
+        <v>1.069433052701728</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1516,19 +1513,19 @@
         <v>1.045664796771971</v>
       </c>
       <c r="D17">
+        <v>1.052354769304327</v>
+      </c>
+      <c r="E17">
         <v>1.112903225806452</v>
       </c>
-      <c r="E17">
-        <v>1.025237864860506</v>
-      </c>
       <c r="F17">
-        <v>1.168060200668896</v>
+        <v>1.025231103860794</v>
       </c>
       <c r="G17">
-        <v>1.052354769304327</v>
+        <v>1.168119402985075</v>
       </c>
       <c r="H17">
-        <v>1.078150252047081</v>
+        <v>1.078160740310374</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1548,19 +1545,19 @@
         <v>1.051176065347899</v>
       </c>
       <c r="D18">
+        <v>1.054187584668101</v>
+      </c>
+      <c r="E18">
         <v>1.112953629032258</v>
       </c>
-      <c r="E18">
-        <v>1.014513788098694</v>
-      </c>
       <c r="F18">
-        <v>1.180525995743387</v>
+        <v>1.014464382816748</v>
       </c>
       <c r="G18">
-        <v>1.054187584668101</v>
+        <v>1.180537313432836</v>
       </c>
       <c r="H18">
-        <v>1.083098110583796</v>
+        <v>1.083090493065297</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1580,19 +1577,19 @@
         <v>1.031099301249877</v>
       </c>
       <c r="D19">
+        <v>1.050521953940553</v>
+      </c>
+      <c r="E19">
         <v>1.090625</v>
       </c>
-      <c r="E19">
-        <v>0.9961296565070151</v>
-      </c>
       <c r="F19">
-        <v>1.135147461234418</v>
+        <v>0.9960848287112561</v>
       </c>
       <c r="G19">
-        <v>1.050521953940553</v>
+        <v>1.135164179104478</v>
       </c>
       <c r="H19">
-        <v>1.062299625445213</v>
+        <v>1.062294003460073</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1612,19 +1609,19 @@
         <v>1.035429583702391</v>
       </c>
       <c r="D20">
+        <v>1.064228225356602</v>
+      </c>
+      <c r="E20">
         <v>1.096824596774193</v>
       </c>
-      <c r="E20">
-        <v>0.9971778745363652</v>
-      </c>
       <c r="F20">
-        <v>1.12975068409851</v>
+        <v>0.9971723762914628</v>
       </c>
       <c r="G20">
-        <v>1.064228225356602</v>
+        <v>1.129791044776119</v>
       </c>
       <c r="H20">
-        <v>1.064981211571303</v>
+        <v>1.064988184057844</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1644,19 +1641,19 @@
         <v>1.009743135518158</v>
       </c>
       <c r="D21">
+        <v>1.054665710415172</v>
+      </c>
+      <c r="E21">
         <v>1.055141129032258</v>
       </c>
-      <c r="E21">
-        <v>0.9664570230607968</v>
-      </c>
       <c r="F21">
-        <v>1.088020674977197</v>
+        <v>0.9663947797716149</v>
       </c>
       <c r="G21">
-        <v>1.054665710415172</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="H21">
-        <v>1.035832923376393</v>
+        <v>1.035840220320132</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1676,19 +1673,19 @@
         <v>1.005216022045074</v>
       </c>
       <c r="D22">
+        <v>1.05745477727309</v>
+      </c>
+      <c r="E22">
         <v>1.044254032258064</v>
       </c>
-      <c r="E22">
-        <v>0.9666182873730046</v>
-      </c>
       <c r="F22">
-        <v>1.083764062024932</v>
+        <v>0.9666122892876564</v>
       </c>
       <c r="G22">
-        <v>1.05745477727309</v>
+        <v>1.083820895522388</v>
       </c>
       <c r="H22">
-        <v>1.032780108710762</v>
+        <v>1.032790275793184</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1708,19 +1705,19 @@
         <v>1.016041728176361</v>
       </c>
       <c r="D23">
+        <v>1.081759502749223</v>
+      </c>
+      <c r="E23">
         <v>1.057661290322581</v>
       </c>
-      <c r="E23">
-        <v>0.9804870182228673</v>
-      </c>
       <c r="F23">
-        <v>1.108619641228337</v>
+        <v>0.9804241435562806</v>
       </c>
       <c r="G23">
-        <v>1.081759502749223</v>
+        <v>1.10865671641791</v>
       </c>
       <c r="H23">
-        <v>1.049463988114583</v>
+        <v>1.04945882821918</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1740,19 +1737,19 @@
         <v>1.045763212282256</v>
       </c>
       <c r="D24">
+        <v>1.068371981831222</v>
+      </c>
+      <c r="E24">
         <v>1.071118951612903</v>
       </c>
-      <c r="E24">
-        <v>0.9927431059506532</v>
-      </c>
       <c r="F24">
-        <v>1.117588932806324</v>
+        <v>0.9927134312126155</v>
       </c>
       <c r="G24">
-        <v>1.068371981831222</v>
+        <v>1.117611940298507</v>
       </c>
       <c r="H24">
-        <v>1.059674313572822</v>
+        <v>1.059672980123652</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1772,19 +1769,19 @@
         <v>1.03985828166519</v>
       </c>
       <c r="D25">
+        <v>1.086859510717985</v>
+      </c>
+      <c r="E25">
         <v>1.058064516129032</v>
       </c>
-      <c r="E25">
-        <v>0.9777455249153363</v>
-      </c>
       <c r="F25">
-        <v>1.120933414411675</v>
+        <v>0.9777052746057641</v>
       </c>
       <c r="G25">
-        <v>1.086859510717985</v>
+        <v>1.120955223880597</v>
       </c>
       <c r="H25">
-        <v>1.058418023643701</v>
+        <v>1.058414335475571</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1804,19 +1801,19 @@
         <v>1.0271626808385</v>
       </c>
       <c r="D26">
+        <v>1.090604829070046</v>
+      </c>
+      <c r="E26">
         <v>1.044304435483871</v>
       </c>
-      <c r="E26">
-        <v>0.9571036929527497</v>
-      </c>
       <c r="F26">
-        <v>1.105047126786257</v>
+        <v>0.957041870581838</v>
       </c>
       <c r="G26">
-        <v>1.090604829070046</v>
+        <v>1.105074626865672</v>
       </c>
       <c r="H26">
-        <v>1.048115781640506</v>
+        <v>1.048108917182207</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1836,19 +1833,19 @@
         <v>1.019781517567169</v>
       </c>
       <c r="D27">
+        <v>1.121683002629692</v>
+      </c>
+      <c r="E27">
         <v>1.020665322580645</v>
       </c>
-      <c r="E27">
-        <v>0.935897435897436</v>
-      </c>
       <c r="F27">
-        <v>1.126862268166616</v>
+        <v>0.9358346927678086</v>
       </c>
       <c r="G27">
-        <v>1.121683002629692</v>
+        <v>1.126925373134328</v>
       </c>
       <c r="H27">
-        <v>1.049920599383189</v>
+        <v>1.049920671750806</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1868,19 +1865,19 @@
         <v>1.029032575533904</v>
       </c>
       <c r="D28">
+        <v>1.126384572475895</v>
+      </c>
+      <c r="E28">
         <v>1.035735887096774</v>
       </c>
-      <c r="E28">
-        <v>0.9478309950008065</v>
-      </c>
       <c r="F28">
-        <v>1.139480085132259</v>
+        <v>0.9477977161500817</v>
       </c>
       <c r="G28">
-        <v>1.126384572475895</v>
+        <v>1.139582089552239</v>
       </c>
       <c r="H28">
-        <v>1.061747330162437</v>
+        <v>1.061761075276288</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1900,19 +1897,19 @@
         <v>1.048715677590788</v>
       </c>
       <c r="D29">
+        <v>1.124711132361144</v>
+      </c>
+      <c r="E29">
         <v>1.067288306451613</v>
       </c>
-      <c r="E29">
-        <v>0.9646831156265119</v>
-      </c>
       <c r="F29">
-        <v>1.161067193675889</v>
+        <v>0.9646547036432844</v>
       </c>
       <c r="G29">
-        <v>1.124711132361144</v>
+        <v>1.161074626865672</v>
       </c>
       <c r="H29">
-        <v>1.079906357862284</v>
+        <v>1.079902162103595</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1932,19 +1929,19 @@
         <v>1.070071843322508</v>
       </c>
       <c r="D30">
+        <v>1.11913299864531</v>
+      </c>
+      <c r="E30">
         <v>1.083417338709677</v>
       </c>
-      <c r="E30">
-        <v>0.9813739719400099</v>
-      </c>
       <c r="F30">
-        <v>1.189647309212527</v>
+        <v>0.9814029363784665</v>
       </c>
       <c r="G30">
-        <v>1.11913299864531</v>
+        <v>1.189731343283582</v>
       </c>
       <c r="H30">
-        <v>1.096919183476214</v>
+        <v>1.096941783178117</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1964,19 +1961,19 @@
         <v>1.064363743726011</v>
       </c>
       <c r="D31">
+        <v>1.136983026535979</v>
+      </c>
+      <c r="E31">
         <v>1.077620967741935</v>
       </c>
-      <c r="E31">
-        <v>0.9920980487018223</v>
-      </c>
       <c r="F31">
-        <v>1.137503800547279</v>
+        <v>0.9920609026644917</v>
       </c>
       <c r="G31">
-        <v>1.136983026535979</v>
+        <v>1.13755223880597</v>
       </c>
       <c r="H31">
-        <v>1.087088173819691</v>
+        <v>1.087090432263963</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -1996,19 +1993,19 @@
         <v>1.066036807400846</v>
       </c>
       <c r="D32">
+        <v>1.131723643318193</v>
+      </c>
+      <c r="E32">
         <v>1.084627016129032</v>
       </c>
-      <c r="E32">
-        <v>0.994517013384938</v>
-      </c>
       <c r="F32">
-        <v>1.150197628458498</v>
+        <v>0.9944535073409462</v>
       </c>
       <c r="G32">
-        <v>1.131723643318193</v>
+        <v>1.150208955223881</v>
       </c>
       <c r="H32">
-        <v>1.092320894090289</v>
+        <v>1.092310458234568</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2028,19 +2025,19 @@
         <v>1.027654758389922</v>
       </c>
       <c r="D33">
+        <v>1.1137142401785</v>
+      </c>
+      <c r="E33">
         <v>1.059475806451613</v>
       </c>
-      <c r="E33">
-        <v>0.9748427672955976</v>
-      </c>
       <c r="F33">
-        <v>1.10063849194284</v>
+        <v>0.9748776508972268</v>
       </c>
       <c r="G33">
-        <v>1.1137142401785</v>
+        <v>1.10065671641791</v>
       </c>
       <c r="H33">
-        <v>1.060911582864013</v>
+        <v>1.060922204479353</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2060,19 +2057,19 @@
         <v>1.016041728176361</v>
       </c>
       <c r="D34">
+        <v>1.122798629372858</v>
+      </c>
+      <c r="E34">
         <v>1.058366935483871</v>
       </c>
-      <c r="E34">
-        <v>0.9630704725044348</v>
-      </c>
       <c r="F34">
-        <v>1.08498023715415</v>
+        <v>0.9630233822729745</v>
       </c>
       <c r="G34">
-        <v>1.122798629372858</v>
+        <v>1.085014925373134</v>
       </c>
       <c r="H34">
-        <v>1.054861357455664</v>
+        <v>1.054858877053169</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2092,19 +2089,19 @@
         <v>1.005511268575928</v>
       </c>
       <c r="D35">
+        <v>1.105665790102797</v>
+      </c>
+      <c r="E35">
         <v>1.038508064516129</v>
       </c>
-      <c r="E35">
-        <v>0.9568617964844381</v>
-      </c>
       <c r="F35">
-        <v>1.045530556400122</v>
+        <v>0.9568243610657967</v>
       </c>
       <c r="G35">
-        <v>1.105665790102797</v>
+        <v>1.045611940298508</v>
       </c>
       <c r="H35">
-        <v>1.033600683699783</v>
+        <v>1.033609473395732</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2124,19 +2121,19 @@
         <v>1.006200177147919</v>
       </c>
       <c r="D36">
+        <v>1.121443939756156</v>
+      </c>
+      <c r="E36">
         <v>1.037449596774193</v>
       </c>
-      <c r="E36">
-        <v>0.9428318013223674</v>
-      </c>
       <c r="F36">
-        <v>1.042338096685923</v>
+        <v>0.942794997281131</v>
       </c>
       <c r="G36">
-        <v>1.121443939756156</v>
+        <v>1.042388059701493</v>
       </c>
       <c r="H36">
-        <v>1.032185779084672</v>
+        <v>1.032188410879539</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2156,19 +2153,19 @@
         <v>0.9881901387658695</v>
       </c>
       <c r="D37">
+        <v>1.084389194358116</v>
+      </c>
+      <c r="E37">
         <v>1.023840725806451</v>
       </c>
-      <c r="E37">
-        <v>0.9303338171262699</v>
-      </c>
       <c r="F37">
-        <v>1.014974156278504</v>
+        <v>0.9302882001087548</v>
       </c>
       <c r="G37">
-        <v>1.084389194358116</v>
+        <v>1.015044776119403</v>
       </c>
       <c r="H37">
-        <v>1.009635189344293</v>
+        <v>1.00964018990897</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2188,19 +2185,19 @@
         <v>1.013187678378112</v>
       </c>
       <c r="D38">
+        <v>1.084389194358116</v>
+      </c>
+      <c r="E38">
         <v>1.057358870967742</v>
       </c>
-      <c r="E38">
-        <v>0.9468634091275601</v>
-      </c>
       <c r="F38">
-        <v>1.02873213742779</v>
+        <v>0.9468189233278956</v>
       </c>
       <c r="G38">
-        <v>1.084389194358116</v>
+        <v>1.028776119402985</v>
       </c>
       <c r="H38">
-        <v>1.025976184411464</v>
+        <v>1.025976083646571</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2220,19 +2217,19 @@
         <v>1.00846373388446</v>
       </c>
       <c r="D39">
+        <v>1.076978245278508</v>
+      </c>
+      <c r="E39">
         <v>1.054435483870968</v>
       </c>
-      <c r="E39">
-        <v>0.9351717464925012</v>
-      </c>
       <c r="F39">
-        <v>1.009653390088173</v>
+        <v>0.9351821642196846</v>
       </c>
       <c r="G39">
-        <v>1.076978245278508</v>
+        <v>1.009671641791045</v>
       </c>
       <c r="H39">
-        <v>1.015310488878405</v>
+        <v>1.015316222764416</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2252,19 +2249,19 @@
         <v>1.017517960830627</v>
       </c>
       <c r="D40">
+        <v>1.123197067495418</v>
+      </c>
+      <c r="E40">
         <v>1.061441532258065</v>
       </c>
-      <c r="E40">
-        <v>0.941380422512498</v>
-      </c>
       <c r="F40">
-        <v>1.026603830951657</v>
+        <v>0.9413811854268624</v>
       </c>
       <c r="G40">
-        <v>1.123197067495418</v>
+        <v>1.026626865671642</v>
       </c>
       <c r="H40">
-        <v>1.03276651964256</v>
+        <v>1.03277127916943</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2284,19 +2281,19 @@
         <v>0.993012498769806</v>
       </c>
       <c r="D41">
+        <v>1.114750179297155</v>
+      </c>
+      <c r="E41">
         <v>1.023387096774194</v>
       </c>
-      <c r="E41">
-        <v>0.9154168682470569</v>
-      </c>
       <c r="F41">
-        <v>0.9798570994223167</v>
+        <v>0.9153887982599239</v>
       </c>
       <c r="G41">
-        <v>1.114750179297155</v>
+        <v>0.9799402985074627</v>
       </c>
       <c r="H41">
-        <v>1.002358715084871</v>
+        <v>1.002369740904474</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2316,19 +2313,19 @@
         <v>0.9964570416297608</v>
       </c>
       <c r="D42">
+        <v>1.106303291098893</v>
+      </c>
+      <c r="E42">
         <v>1.02570564516129</v>
       </c>
-      <c r="E42">
-        <v>0.919206579583938</v>
-      </c>
       <c r="F42">
-        <v>0.9825934934630586</v>
+        <v>0.919195214790647</v>
       </c>
       <c r="G42">
-        <v>1.106303291098893</v>
+        <v>0.982686567164179</v>
       </c>
       <c r="H42">
-        <v>1.002765112199752</v>
+        <v>1.002781453981318</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2348,19 +2345,19 @@
         <v>0.9664403109930125</v>
       </c>
       <c r="D43">
+        <v>1.088851701330783</v>
+      </c>
+      <c r="E43">
         <v>0.9869959677419354</v>
       </c>
-      <c r="E43">
-        <v>0.8958232543138205</v>
-      </c>
       <c r="F43">
-        <v>0.9266494375190027</v>
+        <v>0.8958129418162044</v>
       </c>
       <c r="G43">
-        <v>1.088851701330783</v>
+        <v>0.9266865671641791</v>
       </c>
       <c r="H43">
-        <v>0.9678962574290992</v>
+        <v>0.9679016208586112</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2380,19 +2377,19 @@
         <v>0.9528589705737623</v>
       </c>
       <c r="D44">
+        <v>1.069328233325365</v>
+      </c>
+      <c r="E44">
         <v>0.9539818548387097</v>
       </c>
-      <c r="E44">
-        <v>0.8764715368488953</v>
-      </c>
       <c r="F44">
-        <v>0.8996655518394648</v>
+        <v>0.8764545948885263</v>
       </c>
       <c r="G44">
-        <v>1.069328233325365</v>
+        <v>0.8997014925373134</v>
       </c>
       <c r="H44">
-        <v>0.9442070602902681</v>
+        <v>0.9442108600377641</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2412,19 +2409,19 @@
         <v>0.9615195354787914</v>
       </c>
       <c r="D45">
+        <v>1.064706351103674</v>
+      </c>
+      <c r="E45">
         <v>0.9587701612903226</v>
       </c>
-      <c r="E45">
-        <v>0.865666827930979</v>
-      </c>
       <c r="F45">
-        <v>0.9204925509273336</v>
+        <v>0.8656878738444808</v>
       </c>
       <c r="G45">
-        <v>1.064706351103674</v>
+        <v>0.9204776119402985</v>
       </c>
       <c r="H45">
-        <v>0.9484903319392233</v>
+        <v>0.9484915533245165</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2444,19 +2441,19 @@
         <v>0.9738214742643441</v>
       </c>
       <c r="D46">
+        <v>1.096182962785879</v>
+      </c>
+      <c r="E46">
         <v>0.975554435483871</v>
       </c>
-      <c r="E46">
-        <v>0.8797774552491534</v>
-      </c>
       <c r="F46">
-        <v>0.9444359987838248</v>
+        <v>0.8797172376291462</v>
       </c>
       <c r="G46">
-        <v>1.096182962785879</v>
+        <v>0.9444776119402986</v>
       </c>
       <c r="H46">
-        <v>0.9694019970862993</v>
+        <v>0.9693982761935926</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2476,19 +2473,19 @@
         <v>0.9786438342682806</v>
       </c>
       <c r="D47">
+        <v>1.106701729221452</v>
+      </c>
+      <c r="E47">
         <v>0.9792842741935485</v>
       </c>
-      <c r="E47">
-        <v>0.8669569424286406</v>
-      </c>
       <c r="F47">
-        <v>0.9461082395865004</v>
+        <v>0.8669929309407287</v>
       </c>
       <c r="G47">
-        <v>1.106701729221452</v>
+        <v>0.9461492537313433</v>
       </c>
       <c r="H47">
-        <v>0.970413313242744</v>
+        <v>0.9704287137741301</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2508,19 +2505,19 @@
         <v>0.965849817931306</v>
       </c>
       <c r="D48">
+        <v>1.115706430791298</v>
+      </c>
+      <c r="E48">
         <v>0.9550907258064516</v>
       </c>
-      <c r="E48">
-        <v>0.8509111433639736</v>
-      </c>
       <c r="F48">
-        <v>0.9020979020979021</v>
+        <v>0.8508972267536705</v>
       </c>
       <c r="G48">
-        <v>1.115706430791298</v>
+        <v>0.9020895522388059</v>
       </c>
       <c r="H48">
-        <v>0.9508886483152375</v>
+        <v>0.9508841950213576</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2540,19 +2537,19 @@
         <v>0.9761834465111702</v>
       </c>
       <c r="D49">
+        <v>1.128058012590645</v>
+      </c>
+      <c r="E49">
         <v>0.9518649193548387</v>
       </c>
-      <c r="E49">
-        <v>0.8565553942912435</v>
-      </c>
       <c r="F49">
-        <v>0.907190635451505</v>
+        <v>0.856552474170745</v>
       </c>
       <c r="G49">
-        <v>1.128058012590645</v>
+        <v>0.907223880597015</v>
       </c>
       <c r="H49">
-        <v>0.9572740353774224</v>
+        <v>0.9572801003824247</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2572,19 +2569,19 @@
         <v>0.9900600334612735</v>
       </c>
       <c r="D50">
+        <v>1.111164236194119</v>
+      </c>
+      <c r="E50">
         <v>0.9625504032258064</v>
       </c>
-      <c r="E50">
-        <v>0.8663925173359136</v>
-      </c>
       <c r="F50">
-        <v>0.9147917300091213</v>
+        <v>0.8663404023926047</v>
       </c>
       <c r="G50">
-        <v>1.111164236194119</v>
+        <v>0.914865671641791</v>
       </c>
       <c r="H50">
-        <v>0.9624485789733116</v>
+        <v>0.9624529443111838</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2604,19 +2601,19 @@
         <v>0.9982285208148804</v>
       </c>
       <c r="D51">
+        <v>1.114192365925572</v>
+      </c>
+      <c r="E51">
         <v>0.9705141129032258</v>
       </c>
-      <c r="E51">
-        <v>0.8669569424286406</v>
-      </c>
       <c r="F51">
-        <v>0.9296138643964732</v>
+        <v>0.8669929309407287</v>
       </c>
       <c r="G51">
-        <v>1.114192365925572</v>
+        <v>0.9296716417910447</v>
       </c>
       <c r="H51">
-        <v>0.970134838225214</v>
+        <v>0.9701535914065458</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2636,19 +2633,19 @@
         <v>0.9790374963094184</v>
       </c>
       <c r="D52">
+        <v>1.082715754243366</v>
+      </c>
+      <c r="E52">
         <v>0.9604838709677419</v>
       </c>
-      <c r="E52">
-        <v>0.8510724076761814</v>
-      </c>
       <c r="F52">
-        <v>0.9109151717847369</v>
+        <v>0.8510059815116912</v>
       </c>
       <c r="G52">
-        <v>1.082715754243366</v>
+        <v>0.9109253731343283</v>
       </c>
       <c r="H52">
-        <v>0.950579240519854</v>
+        <v>0.9505679955568741</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2668,19 +2665,19 @@
         <v>0.9923235901978151</v>
       </c>
       <c r="D53">
+        <v>1.103673599489999</v>
+      </c>
+      <c r="E53">
         <v>0.9756048387096774</v>
       </c>
-      <c r="E53">
-        <v>0.867198838896952</v>
-      </c>
       <c r="F53">
-        <v>0.9124353906962602</v>
+        <v>0.86721044045677</v>
       </c>
       <c r="G53">
-        <v>1.103673599489999</v>
+        <v>0.9124776119402984</v>
       </c>
       <c r="H53">
-        <v>0.9629934080313838</v>
+        <v>0.9630041725921552</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2700,19 +2697,19 @@
         <v>0.9781517567168586</v>
       </c>
       <c r="D54">
+        <v>1.098812654394772</v>
+      </c>
+      <c r="E54">
         <v>0.9649193548387097</v>
       </c>
-      <c r="E54">
-        <v>0.8646992420577327</v>
-      </c>
       <c r="F54">
-        <v>0.9087108543630283</v>
+        <v>0.8647090810222948</v>
       </c>
       <c r="G54">
-        <v>1.098812654394772</v>
+        <v>0.9087761194029851</v>
       </c>
       <c r="H54">
-        <v>0.9570430743640972</v>
+        <v>0.957058095165001</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2732,19 +2729,19 @@
         <v>0.9668339730341502</v>
       </c>
       <c r="D55">
+        <v>1.082317316120807</v>
+      </c>
+      <c r="E55">
         <v>0.9440020161290322</v>
       </c>
-      <c r="E55">
-        <v>0.855668440574101</v>
-      </c>
       <c r="F55">
-        <v>0.9103070842201276</v>
+        <v>0.8556824361065798</v>
       </c>
       <c r="G55">
-        <v>1.082317316120807</v>
+        <v>0.9103283582089552</v>
       </c>
       <c r="H55">
-        <v>0.9464164727890094</v>
+        <v>0.9464235266932707</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2764,19 +2761,19 @@
         <v>0.9638815077256176</v>
       </c>
       <c r="D56">
+        <v>1.075942306159853</v>
+      </c>
+      <c r="E56">
         <v>0.9422883064516129</v>
       </c>
-      <c r="E56">
-        <v>0.8641348169650057</v>
-      </c>
       <c r="F56">
-        <v>0.9248251748251747</v>
+        <v>0.8641653072321914</v>
       </c>
       <c r="G56">
-        <v>1.075942306159853</v>
+        <v>0.9248955223880596</v>
       </c>
       <c r="H56">
-        <v>0.9489506883122203</v>
+        <v>0.9489708558782343</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2796,19 +2793,19 @@
         <v>0.9840566873339238</v>
       </c>
       <c r="D57">
+        <v>1.085982946848355</v>
+      </c>
+      <c r="E57">
         <v>0.9686491935483871</v>
       </c>
-      <c r="E57">
-        <v>0.8795355587808419</v>
-      </c>
       <c r="F57">
-        <v>0.9518850714502889</v>
+        <v>0.879499728113105</v>
       </c>
       <c r="G57">
-        <v>1.085982946848355</v>
+        <v>0.9518805970149253</v>
       </c>
       <c r="H57">
-        <v>0.9686777708029662</v>
+        <v>0.9686697097823461</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2828,19 +2825,19 @@
         <v>0.9809073910048224</v>
       </c>
       <c r="D58">
+        <v>1.090764204319069</v>
+      </c>
+      <c r="E58">
         <v>0.9701108870967743</v>
       </c>
-      <c r="E58">
-        <v>0.8713110788582488</v>
-      </c>
       <c r="F58">
-        <v>0.9535573122529644</v>
+        <v>0.8713431212615552</v>
       </c>
       <c r="G58">
-        <v>1.090764204319069</v>
+        <v>0.9535522388059701</v>
       </c>
       <c r="H58">
-        <v>0.9690083299735377</v>
+        <v>0.9690137237648002</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2860,19 +2857,19 @@
         <v>0.982482039169373</v>
       </c>
       <c r="D59">
+        <v>1.098493903896725</v>
+      </c>
+      <c r="E59">
         <v>0.9806451612903225</v>
       </c>
-      <c r="E59">
-        <v>0.8730043541364297</v>
-      </c>
       <c r="F59">
-        <v>0.9683794466403162</v>
+        <v>0.8729744426318651</v>
       </c>
       <c r="G59">
-        <v>1.098493903896725</v>
+        <v>0.9684776119402986</v>
       </c>
       <c r="H59">
-        <v>0.9770168609346498</v>
+        <v>0.9770305116937334</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2892,19 +2889,19 @@
         <v>0.9785454187579962</v>
       </c>
       <c r="D60">
+        <v>1.101840784126225</v>
+      </c>
+      <c r="E60">
         <v>0.9749495967741935</v>
       </c>
-      <c r="E60">
-        <v>0.8744557329462991</v>
-      </c>
       <c r="F60">
-        <v>0.9633627242322895</v>
+        <v>0.8744970092441545</v>
       </c>
       <c r="G60">
-        <v>1.101840784126225</v>
+        <v>0.9634626865671641</v>
       </c>
       <c r="H60">
-        <v>0.974521723480037</v>
+        <v>0.974549971206583</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2924,19 +2921,19 @@
         <v>0.9933077453006595</v>
       </c>
       <c r="D61">
+        <v>1.098414216272213</v>
+      </c>
+      <c r="E61">
         <v>0.9870463709677419</v>
       </c>
-      <c r="E61">
-        <v>0.8835671665860346</v>
-      </c>
       <c r="F61">
-        <v>0.9886743691091516</v>
+        <v>0.8835236541598696</v>
       </c>
       <c r="G61">
-        <v>1.098414216272213</v>
+        <v>0.9887761194029849</v>
       </c>
       <c r="H61">
-        <v>0.9860665265216318</v>
+        <v>0.9860781740951654</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2956,19 +2953,19 @@
         <v>1.005609684086212</v>
       </c>
       <c r="D62">
+        <v>1.085664196350307</v>
+      </c>
+      <c r="E62">
         <v>0.9946572580645161</v>
       </c>
-      <c r="E62">
-        <v>0.888888888888889</v>
-      </c>
       <c r="F62">
-        <v>0.997187595013682</v>
+        <v>0.888852637302882</v>
       </c>
       <c r="G62">
-        <v>1.085664196350307</v>
+        <v>0.9972537313432837</v>
       </c>
       <c r="H62">
-        <v>0.9915835046207191</v>
+        <v>0.991589481569438</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -2988,19 +2985,19 @@
         <v>1.000098415510284</v>
       </c>
       <c r="D63">
+        <v>1.0882938879592</v>
+      </c>
+      <c r="E63">
         <v>0.9985887096774194</v>
       </c>
-      <c r="E63">
-        <v>0.8994517013384937</v>
-      </c>
       <c r="F63">
-        <v>0.979477044694436</v>
+        <v>0.8994018488308864</v>
       </c>
       <c r="G63">
-        <v>1.0882938879592</v>
+        <v>0.9795820895522388</v>
       </c>
       <c r="H63">
-        <v>0.990107920798278</v>
+        <v>0.9901189592683173</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3020,19 +3017,19 @@
         <v>0.9961617950989076</v>
       </c>
       <c r="D64">
+        <v>1.085265758227747</v>
+      </c>
+      <c r="E64">
         <v>0.9916834677419355</v>
       </c>
-      <c r="E64">
-        <v>0.8909046927914853</v>
-      </c>
       <c r="F64">
-        <v>0.9690635451505015</v>
+        <v>0.8909189777052746</v>
       </c>
       <c r="G64">
-        <v>1.085265758227747</v>
+        <v>0.9690746268656716</v>
       </c>
       <c r="H64">
-        <v>0.981748872491808</v>
+        <v>0.9817539458175999</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3052,19 +3049,19 @@
         <v>0.9957681330577699</v>
       </c>
       <c r="D65">
+        <v>1.082715754243366</v>
+      </c>
+      <c r="E65">
         <v>0.9917842741935484</v>
       </c>
-      <c r="E65">
-        <v>0.8880825673278503</v>
-      </c>
       <c r="F65">
-        <v>0.9863940407418669</v>
+        <v>0.8880913539967373</v>
       </c>
       <c r="G65">
-        <v>1.082715754243366</v>
+        <v>0.9863880597014925</v>
       </c>
       <c r="H65">
-        <v>0.9852219835820675</v>
+        <v>0.98522254470777</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3084,19 +3081,19 @@
         <v>0.9892727093789982</v>
       </c>
       <c r="D66">
+        <v>1.07745637102558</v>
+      </c>
+      <c r="E66">
         <v>0.9883568548387097</v>
       </c>
-      <c r="E66">
-        <v>0.8817932591517498</v>
-      </c>
       <c r="F66">
-        <v>0.9756764974156279</v>
+        <v>0.8817835780315388</v>
       </c>
       <c r="G66">
-        <v>1.07745637102558</v>
+        <v>0.9757611940298507</v>
       </c>
       <c r="H66">
-        <v>0.977663876816385</v>
+        <v>0.9776788799151873</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3116,19 +3113,19 @@
         <v>0.9712626709969491</v>
       </c>
       <c r="D67">
+        <v>1.074428241294127</v>
+      </c>
+      <c r="E67">
         <v>0.9550907258064516</v>
       </c>
-      <c r="E67">
-        <v>0.8667956781164329</v>
-      </c>
       <c r="F67">
-        <v>0.9427637579811492</v>
+        <v>0.8667754214246874</v>
       </c>
       <c r="G67">
-        <v>1.074428241294127</v>
+        <v>0.9428059701492537</v>
       </c>
       <c r="H67">
-        <v>0.95810035224756</v>
+        <v>0.9581047433428318</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3148,19 +3145,19 @@
         <v>0.957189253026277</v>
       </c>
       <c r="D68">
+        <v>1.070125109570484</v>
+      </c>
+      <c r="E68">
         <v>0.958719758064516</v>
       </c>
-      <c r="E68">
-        <v>0.8660699887114982</v>
-      </c>
       <c r="F68">
-        <v>0.9540893888719976</v>
+        <v>0.8660141381185427</v>
       </c>
       <c r="G68">
-        <v>1.070125109570484</v>
+        <v>0.9541492537313433</v>
       </c>
       <c r="H68">
-        <v>0.9594882519372401</v>
+        <v>0.9594890547905179</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3180,19 +3177,19 @@
         <v>0.9792343273299872</v>
       </c>
       <c r="D69">
+        <v>1.057693840146625</v>
+      </c>
+      <c r="E69">
         <v>0.9744455645161291</v>
       </c>
-      <c r="E69">
-        <v>0.876713433317207</v>
-      </c>
       <c r="F69">
-        <v>0.9620705381574948</v>
+        <v>0.8766721044045678</v>
       </c>
       <c r="G69">
-        <v>1.057693840146625</v>
+        <v>0.9621492537313432</v>
       </c>
       <c r="H69">
-        <v>0.9665579333251695</v>
+        <v>0.9665654106574114</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3212,19 +3209,19 @@
         <v>0.9749040448774727</v>
       </c>
       <c r="D70">
+        <v>1.048450075703243</v>
+      </c>
+      <c r="E70">
         <v>0.9716733870967742</v>
       </c>
-      <c r="E70">
-        <v>0.8779229156587648</v>
-      </c>
       <c r="F70">
-        <v>0.9607783520826999</v>
+        <v>0.8778684067427951</v>
       </c>
       <c r="G70">
-        <v>1.048450075703243</v>
+        <v>0.9608358208955223</v>
       </c>
       <c r="H70">
-        <v>0.9630242449636878</v>
+        <v>0.9630248369430584</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3244,19 +3241,19 @@
         <v>0.9870091526424564</v>
       </c>
       <c r="D71">
+        <v>1.050681329189577</v>
+      </c>
+      <c r="E71">
         <v>0.9723286290322581</v>
       </c>
-      <c r="E71">
-        <v>0.8804225124979843</v>
-      </c>
       <c r="F71">
-        <v>0.9591821222256005</v>
+        <v>0.8803697661772703</v>
       </c>
       <c r="G71">
-        <v>1.050681329189577</v>
+        <v>0.9592835820895522</v>
       </c>
       <c r="H71">
-        <v>0.9655709325589737</v>
+        <v>0.9655806752676214</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3276,19 +3273,19 @@
         <v>1.009743135518158</v>
       </c>
       <c r="D72">
+        <v>1.065742290222329</v>
+      </c>
+      <c r="E72">
         <v>1.002923387096774</v>
       </c>
-      <c r="E72">
-        <v>0.9010643444605708</v>
-      </c>
       <c r="F72">
-        <v>0.9800091213134691</v>
+        <v>0.9010331702011963</v>
       </c>
       <c r="G72">
-        <v>1.065742290222329</v>
+        <v>0.9800597014925373</v>
       </c>
       <c r="H72">
-        <v>0.9868394912356317</v>
+        <v>0.9868433724195704</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3308,19 +3305,19 @@
         <v>1.004330282452514</v>
       </c>
       <c r="D73">
+        <v>1.069248545700853</v>
+      </c>
+      <c r="E73">
         <v>0.9984375000000001</v>
       </c>
-      <c r="E73">
-        <v>0.8969521044992744</v>
-      </c>
       <c r="F73">
-        <v>0.9905746427485557</v>
+        <v>0.8969004893964111</v>
       </c>
       <c r="G73">
-        <v>1.069248545700853</v>
+        <v>0.9905671641791045</v>
       </c>
       <c r="H73">
-        <v>0.9883292160210995</v>
+        <v>0.9883173972866367</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3340,19 +3337,19 @@
         <v>1.00088573959256</v>
       </c>
       <c r="D74">
+        <v>1.086939198342498</v>
+      </c>
+      <c r="E74">
         <v>1.000604838709678</v>
       </c>
-      <c r="E74">
-        <v>0.8917110143525239</v>
-      </c>
       <c r="F74">
-        <v>1.005624809972636</v>
+        <v>0.8916802610114192</v>
       </c>
       <c r="G74">
-        <v>1.086939198342498</v>
+        <v>1.005731343283582</v>
       </c>
       <c r="H74">
-        <v>0.9945638858490577</v>
+        <v>0.994579041843026</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3372,19 +3369,19 @@
         <v>1.000787324082275</v>
       </c>
       <c r="D75">
+        <v>1.076898557653996</v>
+      </c>
+      <c r="E75">
         <v>1.009274193548387</v>
       </c>
-      <c r="E75">
-        <v>0.8958232543138205</v>
-      </c>
       <c r="F75">
-        <v>1.006232897537245</v>
+        <v>0.8958129418162044</v>
       </c>
       <c r="G75">
-        <v>1.076898557653996</v>
+        <v>1.006328358208955</v>
       </c>
       <c r="H75">
-        <v>0.9950741652158004</v>
+        <v>0.9950911948506191</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3404,19 +3401,19 @@
         <v>1.00177147918512</v>
       </c>
       <c r="D76">
+        <v>1.082078253247271</v>
+      </c>
+      <c r="E76">
         <v>1.01703629032258</v>
       </c>
-      <c r="E76">
-        <v>0.8904208998548623</v>
-      </c>
       <c r="F76">
-        <v>1.04317421708726</v>
+        <v>0.8903752039151713</v>
       </c>
       <c r="G76">
-        <v>1.082078253247271</v>
+        <v>1.043223880597015</v>
       </c>
       <c r="H76">
-        <v>1.005430594211861</v>
+        <v>1.005431387725874</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3436,19 +3433,19 @@
         <v>0.99488239346521</v>
       </c>
       <c r="D77">
+        <v>1.072515738305841</v>
+      </c>
+      <c r="E77">
         <v>1.012701612903226</v>
       </c>
-      <c r="E77">
-        <v>0.8779229156587648</v>
-      </c>
       <c r="F77">
-        <v>1.039525691699605</v>
+        <v>0.8778684067427951</v>
       </c>
       <c r="G77">
-        <v>1.072515738305841</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="H77">
-        <v>0.9968633200565156</v>
+        <v>0.9968517575453411</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3468,19 +3465,19 @@
         <v>0.996260210609192</v>
       </c>
       <c r="D78">
+        <v>1.072436050681329</v>
+      </c>
+      <c r="E78">
         <v>1.012298387096774</v>
       </c>
-      <c r="E78">
-        <v>0.877277858409934</v>
-      </c>
       <c r="F78">
-        <v>1.063849194283977</v>
+        <v>0.8772158781946711</v>
       </c>
       <c r="G78">
-        <v>1.072436050681329</v>
+        <v>1.063880597014925</v>
       </c>
       <c r="H78">
-        <v>1.002391580286489</v>
+        <v>1.002385464789627</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3500,19 +3497,19 @@
         <v>1.004723944493652</v>
       </c>
       <c r="D79">
+        <v>1.071240736313651</v>
+      </c>
+      <c r="E79">
         <v>1.020262096774194</v>
       </c>
-      <c r="E79">
-        <v>0.8753426866634413</v>
-      </c>
       <c r="F79">
-        <v>1.072058376406203</v>
+        <v>0.8753670473083197</v>
       </c>
       <c r="G79">
-        <v>1.071240736313651</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="H79">
-        <v>1.006650637799908</v>
+        <v>1.006667715244659</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3532,19 +3529,19 @@
         <v>1.00600334612735</v>
       </c>
       <c r="D80">
+        <v>1.09036576619651</v>
+      </c>
+      <c r="E80">
         <v>1.021925403225806</v>
       </c>
-      <c r="E80">
-        <v>0.875584583131753</v>
-      </c>
       <c r="F80">
-        <v>1.072058376406203</v>
+        <v>0.8755845568243611</v>
       </c>
       <c r="G80">
-        <v>1.09036576619651</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="H80">
-        <v>1.012537264598972</v>
+        <v>1.012549464653268</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3564,19 +3561,19 @@
         <v>1.000492077551422</v>
       </c>
       <c r="D81">
+        <v>1.07331261455096</v>
+      </c>
+      <c r="E81">
         <v>1.022479838709677</v>
       </c>
-      <c r="E81">
-        <v>0.8605870020964361</v>
-      </c>
       <c r="F81">
-        <v>1.076695044086349</v>
+        <v>0.8605764002175096</v>
       </c>
       <c r="G81">
-        <v>1.07331261455096</v>
+        <v>1.076776119402985</v>
       </c>
       <c r="H81">
-        <v>1.005889255129959</v>
+        <v>1.005903349817501</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3596,19 +3593,19 @@
         <v>0.9900600334612735</v>
       </c>
       <c r="D82">
+        <v>1.083353255239461</v>
+      </c>
+      <c r="E82">
         <v>1.009122983870968</v>
       </c>
-      <c r="E82">
-        <v>0.8493791323980003</v>
-      </c>
       <c r="F82">
-        <v>1.045454545454545</v>
+        <v>0.8493746601413812</v>
       </c>
       <c r="G82">
-        <v>1.083353255239461</v>
+        <v>1.045492537313433</v>
       </c>
       <c r="H82">
-        <v>0.9930398513743363</v>
+        <v>0.9930465552947899</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3628,19 +3625,19 @@
         <v>0.9718531640586557</v>
       </c>
       <c r="D83">
+        <v>1.094589210295641</v>
+      </c>
+      <c r="E83">
         <v>0.9738407258064515</v>
       </c>
-      <c r="E83">
-        <v>0.8360748266408643</v>
-      </c>
       <c r="F83">
-        <v>1.010185466707206</v>
+        <v>0.8361065796628603</v>
       </c>
       <c r="G83">
-        <v>1.094589210295641</v>
+        <v>1.010268656716418</v>
       </c>
       <c r="H83">
-        <v>0.9754360915964764</v>
+        <v>0.9754590802027181</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3660,19 +3657,19 @@
         <v>0.9788406652888496</v>
       </c>
       <c r="D84">
+        <v>1.087656386963105</v>
+      </c>
+      <c r="E84">
         <v>0.9633568548387097</v>
       </c>
-      <c r="E84">
-        <v>0.8301886792452832</v>
-      </c>
       <c r="F84">
-        <v>1.018546670720584</v>
+        <v>0.8301250679717238</v>
       </c>
       <c r="G84">
-        <v>1.087656386963105</v>
+        <v>1.018626865671642</v>
       </c>
       <c r="H84">
-        <v>0.9714764722118215</v>
+        <v>0.9714797889473213</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3692,19 +3689,19 @@
         <v>0.9784470032477118</v>
       </c>
       <c r="D85">
+        <v>1.091003267192605</v>
+      </c>
+      <c r="E85">
         <v>0.9631552419354839</v>
       </c>
-      <c r="E85">
-        <v>0.8376068376068376</v>
-      </c>
       <c r="F85">
-        <v>1.035725144420797</v>
+        <v>0.8376291462751495</v>
       </c>
       <c r="G85">
-        <v>1.091003267192605</v>
+        <v>1.035820895522388</v>
       </c>
       <c r="H85">
-        <v>0.979224927052291</v>
+        <v>0.9792485390062717</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3724,19 +3721,19 @@
         <v>0.9866154906013187</v>
       </c>
       <c r="D86">
+        <v>1.095864212287832</v>
+      </c>
+      <c r="E86">
         <v>0.9696068548387097</v>
       </c>
-      <c r="E86">
-        <v>0.8442186744073537</v>
-      </c>
       <c r="F86">
-        <v>1.058224384311341</v>
+        <v>0.8441544317563894</v>
       </c>
       <c r="G86">
-        <v>1.095864212287832</v>
+        <v>1.058268656716418</v>
       </c>
       <c r="H86">
-        <v>0.9892095352165291</v>
+        <v>0.9892055411673516</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3756,19 +3753,19 @@
         <v>0.9680149591575633</v>
       </c>
       <c r="D87">
+        <v>1.090764204319069</v>
+      </c>
+      <c r="E87">
         <v>0.9617943548387097</v>
       </c>
-      <c r="E87">
-        <v>0.8393807450411224</v>
-      </c>
       <c r="F87">
-        <v>1.063165095773791</v>
+        <v>0.8393692224034802</v>
       </c>
       <c r="G87">
-        <v>1.090764204319069</v>
+        <v>1.063164179104477</v>
       </c>
       <c r="H87">
-        <v>0.9845791485321729</v>
+        <v>0.9845766606707815</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3788,19 +3785,19 @@
         <v>0.9839582718236394</v>
       </c>
       <c r="D88">
+        <v>1.104789226233166</v>
+      </c>
+      <c r="E88">
         <v>0.9808467741935484</v>
       </c>
-      <c r="E88">
-        <v>0.8566360264473473</v>
-      </c>
       <c r="F88">
-        <v>1.069550015202189</v>
+        <v>0.8566612289287656</v>
       </c>
       <c r="G88">
-        <v>1.104789226233166</v>
+        <v>1.069611940298508</v>
       </c>
       <c r="H88">
-        <v>0.9990784534368324</v>
+        <v>0.9990958789523797</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3820,19 +3817,19 @@
         <v>0.9970475346914672</v>
       </c>
       <c r="D89">
+        <v>1.107418917842059</v>
+      </c>
+      <c r="E89">
         <v>0.9970262096774194</v>
       </c>
-      <c r="E89">
-        <v>0.8729237219803258</v>
-      </c>
       <c r="F89">
-        <v>1.095317725752508</v>
+        <v>0.8728656878738444</v>
       </c>
       <c r="G89">
-        <v>1.107418917842059</v>
+        <v>1.095402985074627</v>
       </c>
       <c r="H89">
-        <v>1.014559053638919</v>
+        <v>1.014564498682046</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3852,19 +3849,19 @@
         <v>0.9993110914280091</v>
       </c>
       <c r="D90">
+        <v>1.105426727229261</v>
+      </c>
+      <c r="E90">
         <v>0.9916834677419355</v>
       </c>
-      <c r="E90">
-        <v>0.8759071117561684</v>
-      </c>
       <c r="F90">
-        <v>1.088096685922773</v>
+        <v>0.8759108210984231</v>
       </c>
       <c r="G90">
-        <v>1.105426727229261</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="H90">
-        <v>1.01227424461627</v>
+        <v>1.012279529897182</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3884,19 +3881,19 @@
         <v>1.003936620411377</v>
       </c>
       <c r="D91">
+        <v>1.089489202326879</v>
+      </c>
+      <c r="E91">
         <v>0.9979838709677419</v>
       </c>
-      <c r="E91">
-        <v>0.8710691823899372</v>
-      </c>
       <c r="F91">
-        <v>1.078139252052296</v>
+        <v>0.8710168569874932</v>
       </c>
       <c r="G91">
-        <v>1.089489202326879</v>
+        <v>1.07820895522388</v>
       </c>
       <c r="H91">
-        <v>1.007360147615981</v>
+        <v>1.007363623169809</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3916,19 +3913,19 @@
         <v>1.006790670209625</v>
       </c>
       <c r="D92">
+        <v>1.099689218264404</v>
+      </c>
+      <c r="E92">
         <v>0.9998487903225807</v>
       </c>
-      <c r="E92">
-        <v>0.8771972262538301</v>
-      </c>
       <c r="F92">
-        <v>1.090148981453329</v>
+        <v>0.8772158781946711</v>
       </c>
       <c r="G92">
-        <v>1.099689218264404</v>
+        <v>1.090149253731343</v>
       </c>
       <c r="H92">
-        <v>1.014760321656035</v>
+        <v>1.014764106499806</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3948,19 +3945,19 @@
         <v>1.004822360003937</v>
       </c>
       <c r="D93">
+        <v>1.085982946848355</v>
+      </c>
+      <c r="E93">
         <v>0.9936491935483871</v>
       </c>
-      <c r="E93">
-        <v>0.8655055636187712</v>
-      </c>
       <c r="F93">
-        <v>1.095165703861356</v>
+        <v>0.8654703643284394</v>
       </c>
       <c r="G93">
-        <v>1.085982946848355</v>
+        <v>1.095164179104477</v>
       </c>
       <c r="H93">
-        <v>1.008437255869331</v>
+        <v>1.008429911059889</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3980,19 +3977,19 @@
         <v>1.004035035921661</v>
       </c>
       <c r="D94">
+        <v>1.08701888596701</v>
+      </c>
+      <c r="E94">
         <v>0.9990423387096774</v>
       </c>
-      <c r="E94">
-        <v>0.8913078535720045</v>
-      </c>
       <c r="F94">
-        <v>1.092201276983886</v>
+        <v>0.8912452419793366</v>
       </c>
       <c r="G94">
-        <v>1.08701888596701</v>
+        <v>1.092298507462687</v>
       </c>
       <c r="H94">
-        <v>1.014951544877301</v>
+        <v>1.014958468654528</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4012,19 +4009,19 @@
         <v>1.016829052258636</v>
       </c>
       <c r="D95">
+        <v>1.124551757112121</v>
+      </c>
+      <c r="E95">
         <v>1.015272177419355</v>
       </c>
-      <c r="E95">
-        <v>0.9174326721496533</v>
-      </c>
       <c r="F95">
-        <v>1.118121009425357</v>
+        <v>0.9174551386623165</v>
       </c>
       <c r="G95">
-        <v>1.124551757112121</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="H95">
-        <v>1.040494743788654</v>
+        <v>1.040516826250891</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4044,19 +4041,19 @@
         <v>1.019683102056884</v>
       </c>
       <c r="D96">
+        <v>1.133556458681967</v>
+      </c>
+      <c r="E96">
         <v>1.008417338709678</v>
       </c>
-      <c r="E96">
-        <v>0.910982099661345</v>
-      </c>
       <c r="F96">
-        <v>1.114548494983277</v>
+        <v>0.9109298531810767</v>
       </c>
       <c r="G96">
-        <v>1.133556458681967</v>
+        <v>1.114626865671642</v>
       </c>
       <c r="H96">
-        <v>1.03870067580146</v>
+        <v>1.038705900643079</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4076,19 +4073,19 @@
         <v>1.028146835941344</v>
       </c>
       <c r="D97">
+        <v>1.124711132361144</v>
+      </c>
+      <c r="E97">
         <v>1.024042338709677</v>
       </c>
-      <c r="E97">
-        <v>0.9171101435252379</v>
-      </c>
       <c r="F97">
-        <v>1.134691395560961</v>
+        <v>0.9171288743882545</v>
       </c>
       <c r="G97">
-        <v>1.124711132361144</v>
+        <v>1.134686567164179</v>
       </c>
       <c r="H97">
-        <v>1.046277509757498</v>
+        <v>1.046280290250745</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4108,19 +4105,19 @@
         <v>1.023521306957977</v>
       </c>
       <c r="D98">
+        <v>1.127261136345526</v>
+      </c>
+      <c r="E98">
         <v>1.022127016129032</v>
       </c>
-      <c r="E98">
-        <v>0.9164650862764071</v>
-      </c>
       <c r="F98">
-        <v>1.110671936758893</v>
+        <v>0.9164763458401305</v>
       </c>
       <c r="G98">
-        <v>1.127261136345526</v>
+        <v>1.110686567164179</v>
       </c>
       <c r="H98">
-        <v>1.040342734169698</v>
+        <v>1.0403479121635</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4140,19 +4137,19 @@
         <v>1.020864088180297</v>
       </c>
       <c r="D99">
+        <v>1.121762690254203</v>
+      </c>
+      <c r="E99">
         <v>1.044707661290323</v>
       </c>
-      <c r="E99">
-        <v>0.9223512336719885</v>
-      </c>
       <c r="F99">
-        <v>1.122301611432046</v>
+        <v>0.9223491027732463</v>
       </c>
       <c r="G99">
-        <v>1.121762690254203</v>
+        <v>1.122388059701492</v>
       </c>
       <c r="H99">
-        <v>1.047064122609894</v>
+        <v>1.047080986084035</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4172,19 +4169,19 @@
         <v>1.025489617163665</v>
       </c>
       <c r="D100">
+        <v>1.112757988684357</v>
+      </c>
+      <c r="E100">
         <v>1.047026209677419</v>
       </c>
-      <c r="E100">
-        <v>0.9215449121109499</v>
-      </c>
       <c r="F100">
-        <v>1.145104895104895</v>
+        <v>0.9214790647090811</v>
       </c>
       <c r="G100">
-        <v>1.112757988684357</v>
+        <v>1.145194029850746</v>
       </c>
       <c r="H100">
-        <v>1.051237482769668</v>
+        <v>1.051242140238464</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4204,19 +4201,19 @@
         <v>1.01781320736148</v>
       </c>
       <c r="D101">
+        <v>1.113475177304965</v>
+      </c>
+      <c r="E101">
         <v>1.030292338709677</v>
       </c>
-      <c r="E101">
-        <v>0.9029188840509595</v>
-      </c>
       <c r="F101">
-        <v>1.121389480085132</v>
+        <v>0.9028820010875477</v>
       </c>
       <c r="G101">
-        <v>1.113475177304965</v>
+        <v>1.121432835820896</v>
       </c>
       <c r="H101">
-        <v>1.037952923052579</v>
+        <v>1.03795421760705</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4236,19 +4233,19 @@
         <v>1.013482924908966</v>
       </c>
       <c r="D102">
+        <v>1.105904852976333</v>
+      </c>
+      <c r="E102">
         <v>1.018699596774194</v>
       </c>
-      <c r="E102">
-        <v>0.8990485405579746</v>
-      </c>
       <c r="F102">
-        <v>1.111051991486774</v>
+        <v>0.8990755845568243</v>
       </c>
       <c r="G102">
-        <v>1.105904852976333</v>
+        <v>1.111164179104478</v>
       </c>
       <c r="H102">
-        <v>1.031045298359505</v>
+        <v>1.031073144682816</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4268,19 +4265,19 @@
         <v>1.01446708001181</v>
       </c>
       <c r="D103">
+        <v>1.119212686269822</v>
+      </c>
+      <c r="E103">
         <v>1.027116935483871</v>
       </c>
-      <c r="E103">
-        <v>0.9009030801483633</v>
-      </c>
       <c r="F103">
-        <v>1.123517786561265</v>
+        <v>0.9009244154431757</v>
       </c>
       <c r="G103">
-        <v>1.119212686269822</v>
+        <v>1.123582089552239</v>
       </c>
       <c r="H103">
-        <v>1.039245069613308</v>
+        <v>1.039262197270465</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4300,19 +4297,19 @@
         <v>1.013679755929535</v>
       </c>
       <c r="D104">
+        <v>1.113156426806917</v>
+      </c>
+      <c r="E104">
         <v>1.036189516129032</v>
       </c>
-      <c r="E104">
-        <v>0.9184002580228996</v>
-      </c>
       <c r="F104">
-        <v>1.125038005472788</v>
+        <v>0.9184339314845025</v>
       </c>
       <c r="G104">
-        <v>1.113156426806917</v>
+        <v>1.125134328358209</v>
       </c>
       <c r="H104">
-        <v>1.043135758735992</v>
+        <v>1.043161758005397</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4332,19 +4329,19 @@
         <v>1.015451235114654</v>
       </c>
       <c r="D105">
+        <v>1.112757988684357</v>
+      </c>
+      <c r="E105">
         <v>1.030191532258064</v>
       </c>
-      <c r="E105">
-        <v>0.9179164650862764</v>
-      </c>
       <c r="F105">
-        <v>1.114320462146549</v>
+        <v>0.9178901576943991</v>
       </c>
       <c r="G105">
-        <v>1.112757988684357</v>
+        <v>1.114388059701493</v>
       </c>
       <c r="H105">
-        <v>1.036717425326962</v>
+        <v>1.036725683359575</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4364,19 +4361,19 @@
         <v>1.01180986123413</v>
       </c>
       <c r="D106">
+        <v>1.108853295083274</v>
+      </c>
+      <c r="E106">
         <v>1.0328125</v>
       </c>
-      <c r="E106">
-        <v>0.9249314626673117</v>
-      </c>
       <c r="F106">
-        <v>1.118805107935543</v>
+        <v>0.9249592169657423</v>
       </c>
       <c r="G106">
-        <v>1.108853295083274</v>
+        <v>1.118805970149254</v>
       </c>
       <c r="H106">
-        <v>1.038892494451857</v>
+        <v>1.038898217754285</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4396,19 +4393,19 @@
         <v>1.017911622871765</v>
       </c>
       <c r="D107">
+        <v>1.105904852976333</v>
+      </c>
+      <c r="E107">
         <v>1.044858870967742</v>
       </c>
-      <c r="E107">
-        <v>0.948476052249637</v>
-      </c>
       <c r="F107">
-        <v>1.12777439951353</v>
+        <v>0.9484502446982056</v>
       </c>
       <c r="G107">
-        <v>1.105904852976333</v>
+        <v>1.127880597014925</v>
       </c>
       <c r="H107">
-        <v>1.048412042100046</v>
+        <v>1.048428120090039</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4428,19 +4425,19 @@
         <v>1.015943312666076</v>
       </c>
       <c r="D108">
+        <v>1.09538608654076</v>
+      </c>
+      <c r="E108">
         <v>1.040977822580645</v>
       </c>
-      <c r="E108">
-        <v>0.9499274310595066</v>
-      </c>
       <c r="F108">
-        <v>1.119109151717847</v>
+        <v>0.9498640565524742</v>
       </c>
       <c r="G108">
-        <v>1.09538608654076</v>
+        <v>1.119164179104478</v>
       </c>
       <c r="H108">
-        <v>1.041978823412319</v>
+        <v>1.041977153988238</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4460,19 +4457,19 @@
         <v>1.010136797559295</v>
       </c>
       <c r="D109">
+        <v>1.079607936887401</v>
+      </c>
+      <c r="E109">
         <v>1.042641129032258</v>
       </c>
-      <c r="E109">
-        <v>0.9408159974197712</v>
-      </c>
       <c r="F109">
-        <v>1.10717543326239</v>
+        <v>0.9408374116367592</v>
       </c>
       <c r="G109">
-        <v>1.079607936887401</v>
+        <v>1.107223880597015</v>
       </c>
       <c r="H109">
-        <v>1.033641216134202</v>
+        <v>1.033655188444525</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4492,19 +4489,19 @@
         <v>0.9916346816258242</v>
       </c>
       <c r="D110">
+        <v>1.085345445852259</v>
+      </c>
+      <c r="E110">
         <v>1.017590725806452</v>
       </c>
-      <c r="E110">
-        <v>0.9238832446379616</v>
-      </c>
       <c r="F110">
-        <v>1.0669656430526</v>
+        <v>0.9238716693855357</v>
       </c>
       <c r="G110">
-        <v>1.085345445852259</v>
+        <v>1.066985074626866</v>
       </c>
       <c r="H110">
-        <v>1.01576322019269</v>
+        <v>1.015764791457058</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4524,19 +4521,19 @@
         <v>0.993012498769806</v>
       </c>
       <c r="D111">
+        <v>1.080723563630568</v>
+      </c>
+      <c r="E111">
         <v>1.040574596774194</v>
       </c>
-      <c r="E111">
-        <v>0.9424286405418483</v>
-      </c>
       <c r="F111">
-        <v>1.080115536637276</v>
+        <v>0.9424687330070691</v>
       </c>
       <c r="G111">
-        <v>1.080723563630568</v>
+        <v>1.080119402985074</v>
       </c>
       <c r="H111">
-        <v>1.026273468384336</v>
+        <v>1.02628226014694</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4556,19 +4553,19 @@
         <v>1.005904930617065</v>
       </c>
       <c r="D112">
+        <v>1.071001673440115</v>
+      </c>
+      <c r="E112">
         <v>1.05866935483871</v>
       </c>
-      <c r="E112">
-        <v>0.9324302531849703</v>
-      </c>
       <c r="F112">
-        <v>1.098738218303436</v>
+        <v>0.932463295269168</v>
       </c>
       <c r="G112">
-        <v>1.071001673440115</v>
+        <v>1.098746268656716</v>
       </c>
       <c r="H112">
-        <v>1.029726489049904</v>
+        <v>1.029734707537399</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4588,19 +4585,19 @@
         <v>1.002066725715973</v>
       </c>
       <c r="D113">
+        <v>1.060243844131006</v>
+      </c>
+      <c r="E113">
         <v>1.072379032258065</v>
       </c>
-      <c r="E113">
-        <v>0.937590711175617</v>
-      </c>
       <c r="F113">
-        <v>1.118121009425357</v>
+        <v>0.9375747688961392</v>
       </c>
       <c r="G113">
-        <v>1.060243844131006</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="H113">
-        <v>1.033876057409423</v>
+        <v>1.033890458113232</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4620,19 +4617,19 @@
         <v>1.007085916740478</v>
       </c>
       <c r="D114">
+        <v>1.072914176428401</v>
+      </c>
+      <c r="E114">
         <v>1.076915322580645</v>
       </c>
-      <c r="E114">
-        <v>0.9334784712143204</v>
-      </c>
       <c r="F114">
-        <v>1.145332927941624</v>
+        <v>0.933442088091354</v>
       </c>
       <c r="G114">
-        <v>1.072914176428401</v>
+        <v>1.145432835820896</v>
       </c>
       <c r="H114">
-        <v>1.042970480326447</v>
+        <v>1.042983185277708</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4652,19 +4649,19 @@
         <v>1.022537151855132</v>
       </c>
       <c r="D115">
+        <v>1.06996573432146</v>
+      </c>
+      <c r="E115">
         <v>1.092590725806452</v>
       </c>
-      <c r="E115">
-        <v>0.9366231253023706</v>
-      </c>
       <c r="F115">
-        <v>1.138948008513226</v>
+        <v>0.9365959760739532</v>
       </c>
       <c r="G115">
-        <v>1.06996573432146</v>
+        <v>1.138985074626866</v>
       </c>
       <c r="H115">
-        <v>1.045174352990387</v>
+        <v>1.045176336367431</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4684,19 +4681,19 @@
         <v>1.01692746776892</v>
       </c>
       <c r="D116">
+        <v>1.076101681408877</v>
+      </c>
+      <c r="E116">
         <v>1.088659274193548</v>
       </c>
-      <c r="E116">
-        <v>0.9171907756813418</v>
-      </c>
       <c r="F116">
-        <v>1.120477348738218</v>
+        <v>0.9171288743882545</v>
       </c>
       <c r="G116">
-        <v>1.076101681408877</v>
+        <v>1.120477611940299</v>
       </c>
       <c r="H116">
-        <v>1.037626304262314</v>
+        <v>1.037613976644113</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4716,19 +4713,19 @@
         <v>1.019289440015747</v>
       </c>
       <c r="D117">
+        <v>1.0882938879592</v>
+      </c>
+      <c r="E117">
         <v>1.101461693548387</v>
       </c>
-      <c r="E117">
-        <v>0.9184002580228996</v>
-      </c>
       <c r="F117">
-        <v>1.152858011553664</v>
+        <v>0.9184339314845025</v>
       </c>
       <c r="G117">
-        <v>1.0882938879592</v>
+        <v>1.152955223880597</v>
       </c>
       <c r="H117">
-        <v>1.051299393476425</v>
+        <v>1.051325570634132</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4742,31 +4739,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>0.9716767925802002</v>
+        <v>0.9862052772152271</v>
       </c>
       <c r="C118">
-        <v>1.019289440015747</v>
+        <v>1.027457927369353</v>
       </c>
       <c r="D118">
-        <v>1.101461693548387</v>
+        <v>1.070603235317555</v>
       </c>
       <c r="E118">
-        <v>0.9184002580228996</v>
+        <v>1.115372983870968</v>
       </c>
       <c r="F118">
-        <v>1.152858011553664</v>
+        <v>0.923762914627515</v>
       </c>
       <c r="G118">
-        <v>1.0882938879592</v>
+        <v>1.168477611940298</v>
       </c>
       <c r="H118">
-        <v>1.051299393476425</v>
+        <v>1.057009669609725</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9725573068005049</v>
+      </c>
+      <c r="C119">
+        <v>1.014762326542663</v>
+      </c>
+      <c r="D119">
+        <v>1.064786038728186</v>
+      </c>
+      <c r="E119">
+        <v>1.108921370967742</v>
+      </c>
+      <c r="F119">
+        <v>0.9251767264817836</v>
+      </c>
+      <c r="G119">
+        <v>1.166686567164179</v>
+      </c>
+      <c r="H119">
+        <v>1.051846104002695</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9734378210208096</v>
+      </c>
+      <c r="C120">
+        <v>1.016336974707214</v>
+      </c>
+      <c r="D120">
+        <v>1.073950115547055</v>
+      </c>
+      <c r="E120">
+        <v>1.130191532258065</v>
+      </c>
+      <c r="F120">
+        <v>0.933768352365416</v>
+      </c>
+      <c r="G120">
+        <v>1.170149253731343</v>
+      </c>
+      <c r="H120">
+        <v>1.060589330353178</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9803645328872062</v>
+      </c>
+      <c r="C121">
+        <v>1.011613030213562</v>
+      </c>
+      <c r="D121">
+        <v>1.092517332058331</v>
+      </c>
+      <c r="E121">
+        <v>1.111038306451613</v>
+      </c>
+      <c r="F121">
+        <v>0.9274605764002175</v>
+      </c>
+      <c r="G121">
+        <v>1.189373134328358</v>
+      </c>
+      <c r="H121">
+        <v>1.063275626157781</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9532153444278125</v>
+      </c>
+      <c r="C122">
+        <v>0.9947839779549256</v>
+      </c>
+      <c r="D122">
+        <v>1.06789385608415</v>
+      </c>
+      <c r="E122">
+        <v>1.093497983870968</v>
+      </c>
+      <c r="F122">
+        <v>0.9066884176182708</v>
+      </c>
+      <c r="G122">
+        <v>1.13134328358209</v>
+      </c>
+      <c r="H122">
+        <v>1.034684640469369</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9479322591059846</v>
+      </c>
+      <c r="C123">
+        <v>0.9928156677492372</v>
+      </c>
+      <c r="D123">
+        <v>1.068611044704757</v>
+      </c>
+      <c r="E123">
+        <v>1.103377016129032</v>
+      </c>
+      <c r="F123">
+        <v>0.9106035889070148</v>
+      </c>
+      <c r="G123">
+        <v>1.134208955223881</v>
+      </c>
+      <c r="H123">
+        <v>1.037434913678459</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9433829356344106</v>
+      </c>
+      <c r="C124">
+        <v>0.995079224485779</v>
+      </c>
+      <c r="D124">
+        <v>1.079767312136425</v>
+      </c>
+      <c r="E124">
+        <v>1.096118951612903</v>
+      </c>
+      <c r="F124">
+        <v>0.9099510603588907</v>
+      </c>
+      <c r="G124">
+        <v>1.081910447761194</v>
+      </c>
+      <c r="H124">
+        <v>1.027395770385902</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9463473335094362</v>
+      </c>
+      <c r="C125">
+        <v>1.006200177147919</v>
+      </c>
+      <c r="D125">
+        <v>1.076739182404973</v>
+      </c>
+      <c r="E125">
+        <v>1.124495967741935</v>
+      </c>
+      <c r="F125">
+        <v>0.9141924959216966</v>
+      </c>
+      <c r="G125">
+        <v>1.117970149253731</v>
+      </c>
+      <c r="H125">
+        <v>1.041934310130203</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9301458718558304</v>
+      </c>
+      <c r="C126">
+        <v>0.9958665485680543</v>
+      </c>
+      <c r="D126">
+        <v>1.049884452944458</v>
+      </c>
+      <c r="E126">
+        <v>1.140625</v>
+      </c>
+      <c r="F126">
+        <v>0.9202827623708537</v>
+      </c>
+      <c r="G126">
+        <v>1.08644776119403</v>
+      </c>
+      <c r="H126">
+        <v>1.032049237344257</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9139150597282146</v>
+      </c>
+      <c r="C127">
+        <v>0.9992126759177247</v>
+      </c>
+      <c r="D127">
+        <v>1.040162562754004</v>
+      </c>
+      <c r="E127">
+        <v>1.140977822580645</v>
+      </c>
+      <c r="F127">
+        <v>0.9143012506797172</v>
+      </c>
+      <c r="G127">
+        <v>1.084179104477612</v>
+      </c>
+      <c r="H127">
+        <v>1.02723692166299</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4878,18 +5163,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -4921,254 +5206,233 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>41.16</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>9.26</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>13.51</v>
-      </c>
-      <c r="M2">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>34.32</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L3">
-        <v>-5.03</v>
-      </c>
-      <c r="M3">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>42.44</v>
+        <v>0.6822999715805054</v>
       </c>
       <c r="K4">
-        <v>4.53</v>
+        <v>6.071000099182129</v>
       </c>
       <c r="L4">
-        <v>6.75</v>
-      </c>
-      <c r="M4">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>60.7</v>
+        <v>4.628699779510498</v>
       </c>
       <c r="K5">
-        <v>5.28</v>
+        <v>43.45380020141602</v>
       </c>
       <c r="L5">
-        <v>11.61</v>
-      </c>
-      <c r="M5">
-        <v>69.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.7452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>53.46</v>
+        <v>5.263500213623047</v>
       </c>
       <c r="K6">
-        <v>12.86</v>
+        <v>60.46319961547852</v>
       </c>
       <c r="L6">
-        <v>35.09</v>
-      </c>
-      <c r="M6">
-        <v>77.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>69.75069999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0.2</v>
       </c>
       <c r="J7">
-        <v>6.41</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K7">
-        <v>0.71</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L7">
-        <v>5.61</v>
-      </c>
-      <c r="M7">
-        <v>0.62</v>
+        <v>77.6234</v>
       </c>
     </row>
   </sheetData>
@@ -5186,19 +5450,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5206,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>127</v>
@@ -5226,16 +5490,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>164</v>
@@ -5246,16 +5510,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>165</v>
@@ -5266,10 +5530,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
@@ -5286,10 +5550,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>131</v>
@@ -5306,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>132</v>
@@ -5326,10 +5590,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>133</v>
@@ -5346,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
@@ -5366,7 +5630,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
@@ -5386,7 +5650,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -5406,7 +5670,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -5426,7 +5690,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>
@@ -5446,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>119</v>
@@ -5466,7 +5730,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>120</v>
@@ -5475,7 +5739,7 @@
         <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
         <v>176</v>
@@ -5486,7 +5750,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>121</v>
@@ -5495,7 +5759,7 @@
         <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
         <v>177</v>
@@ -5506,7 +5770,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>122</v>
@@ -5515,7 +5779,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>178</v>
@@ -5526,7 +5790,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>123</v>
@@ -5535,7 +5799,7 @@
         <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
         <v>179</v>
@@ -5546,7 +5810,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>124</v>
@@ -5555,7 +5819,7 @@
         <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>180</v>
@@ -5566,7 +5830,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>125</v>
@@ -5575,7 +5839,7 @@
         <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
         <v>181</v>
@@ -5586,7 +5850,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
@@ -5595,7 +5859,7 @@
         <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>182</v>
@@ -5630,7 +5894,7 @@
         <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5641,84 +5905,84 @@
         <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
